--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC001C-7944-4549-A33F-7713BBC76A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB8CE7-C6DE-42CC-BFB5-E76BC41E4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38724970-8425-4867-A11A-7A0C72050225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DDEF3-9777-4242-8F99-F5F6AB46A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,7 +956,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>14543107537</v>
+        <v>14543.107537</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>14534642448.84</v>
+        <v>14534.642448840001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>14181087393.68</v>
+        <v>14181.08739368</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>14464596371.68</v>
+        <v>14464.59637168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>14292842656.68</v>
+        <v>14292.842656680001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>14316475007.290001</v>
+        <v>14316.475007290001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>14375740247.200001</v>
+        <v>14375.740247200001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>14709395888.58</v>
+        <v>14709.39588858</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>14359378328.959999</v>
+        <v>14359.37832896</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>14426545278.17</v>
+        <v>14426.545278170001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>14460902092.709999</v>
+        <v>14460.902092709999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>14267334211.92</v>
+        <v>14267.334211920001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1155,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>14426708221.74</v>
+        <v>14426.70822174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>14419965916.629999</v>
+        <v>14419.965916629999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>14544359768.469999</v>
+        <v>14544.35976847</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>14389342210.200001</v>
+        <v>14389.3422102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1211,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>14520390988.450001</v>
+        <v>14520.390988450001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>14263126044.700001</v>
+        <v>14263.1260447</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>14402846658.709999</v>
+        <v>14402.846658709999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>14321277459.48</v>
+        <v>14321.277459479999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="D22">
-        <v>14599033213.17</v>
+        <v>14599.03321317</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>14205330412.620001</v>
+        <v>14205.33041262</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>14715610850.559999</v>
+        <v>14715.610850559999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1309,7 +1309,7 @@
         <v>27</v>
       </c>
       <c r="D25">
-        <v>14246370718.49</v>
+        <v>14246.370718489999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <v>14298120193.42</v>
+        <v>14298.12019342</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1337,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>14476344279.200001</v>
+        <v>14476.344279200001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>14163128210.450001</v>
+        <v>14163.128210450001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1365,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <v>14249875205.32</v>
+        <v>14249.875205320001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1379,7 +1379,7 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>14247528248.1</v>
+        <v>14247.528248099999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>14518188861.950001</v>
+        <v>14518.188861950001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,7 +1407,7 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>14478252552.35</v>
+        <v>14478.252552350001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
         <v>36</v>
       </c>
       <c r="D33">
-        <v>14242061655.84</v>
+        <v>14242.06165584</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1435,7 +1435,7 @@
         <v>37</v>
       </c>
       <c r="D34">
-        <v>14486886380.4</v>
+        <v>14486.886380399999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>38</v>
       </c>
       <c r="D35">
-        <v>14326675920.030001</v>
+        <v>14326.67592003</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>39</v>
       </c>
       <c r="D36">
-        <v>14429678222.969999</v>
+        <v>14429.67822297</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1477,7 +1477,7 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>14533826868.57</v>
+        <v>14533.82686857</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1491,7 +1491,7 @@
         <v>41</v>
       </c>
       <c r="D38">
-        <v>14274485240.91</v>
+        <v>14274.48524091</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1505,7 +1505,7 @@
         <v>42</v>
       </c>
       <c r="D39">
-        <v>14304804144.299999</v>
+        <v>14304.804144299998</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="D40">
-        <v>14379015313.76</v>
+        <v>14379.015313760001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1533,7 +1533,7 @@
         <v>44</v>
       </c>
       <c r="D41">
-        <v>14205543937.049999</v>
+        <v>14205.543937049999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1547,7 +1547,7 @@
         <v>45</v>
       </c>
       <c r="D42">
-        <v>14259650102.120001</v>
+        <v>14259.65010212</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1561,7 +1561,7 @@
         <v>46</v>
       </c>
       <c r="D43">
-        <v>14542712502.27</v>
+        <v>14542.71250227</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>14369106558.67</v>
+        <v>14369.106558670001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>14365956851.299999</v>
+        <v>14365.956851299999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1603,7 +1603,7 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>14568623961.42</v>
+        <v>14568.62396142</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1617,7 +1617,7 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>14561332351.889999</v>
+        <v>14561.33235189</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>14413392960.77</v>
+        <v>14413.392960770001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1645,7 +1645,7 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>14350519862.950001</v>
+        <v>14350.519862950001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1659,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>14655056926.09</v>
+        <v>14655.056926089999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1673,7 +1673,7 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>14479950453.129999</v>
+        <v>14479.950453129999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>14291779899.84</v>
+        <v>14291.779899839999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1701,7 +1701,7 @@
         <v>57</v>
       </c>
       <c r="D53">
-        <v>14164776896.559999</v>
+        <v>14164.776896559999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1715,7 +1715,7 @@
         <v>58</v>
       </c>
       <c r="D54">
-        <v>14363594367.889999</v>
+        <v>14363.59436789</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1729,7 +1729,7 @@
         <v>59</v>
       </c>
       <c r="D55">
-        <v>14526472018.4</v>
+        <v>14526.4720184</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>60</v>
       </c>
       <c r="D56">
-        <v>14200081575.690001</v>
+        <v>14200.081575690001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>61</v>
       </c>
       <c r="D57">
-        <v>14233154906.389999</v>
+        <v>14233.15490639</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1771,7 +1771,7 @@
         <v>62</v>
       </c>
       <c r="D58">
-        <v>14583285542</v>
+        <v>14583.285542</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1785,7 +1785,7 @@
         <v>63</v>
       </c>
       <c r="D59">
-        <v>14415188829.950001</v>
+        <v>14415.188829950001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>64</v>
       </c>
       <c r="D60">
-        <v>14374350543.57</v>
+        <v>14374.350543569999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1813,7 +1813,7 @@
         <v>65</v>
       </c>
       <c r="D61">
-        <v>14512776696.690001</v>
+        <v>14512.77669669</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1827,7 +1827,7 @@
         <v>66</v>
       </c>
       <c r="D62">
-        <v>14279620552.34</v>
+        <v>14279.62055234</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1841,7 +1841,7 @@
         <v>67</v>
       </c>
       <c r="D63">
-        <v>14507165896.24</v>
+        <v>14507.16589624</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1855,7 +1855,7 @@
         <v>69</v>
       </c>
       <c r="D64">
-        <v>14413401561.440001</v>
+        <v>14413.401561440001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1869,7 +1869,7 @@
         <v>70</v>
       </c>
       <c r="D65">
-        <v>14387818478.65</v>
+        <v>14387.818478649999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1883,7 +1883,7 @@
         <v>71</v>
       </c>
       <c r="D66">
-        <v>14470085130.59</v>
+        <v>14470.08513059</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1897,7 +1897,7 @@
         <v>72</v>
       </c>
       <c r="D67">
-        <v>14289680068.610001</v>
+        <v>14289.680068610001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1911,7 +1911,7 @@
         <v>73</v>
       </c>
       <c r="D68">
-        <v>14316153661.950001</v>
+        <v>14316.15366195</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1925,7 +1925,7 @@
         <v>74</v>
       </c>
       <c r="D69">
-        <v>14504315893.5</v>
+        <v>14504.315893499999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1939,7 +1939,7 @@
         <v>75</v>
       </c>
       <c r="D70">
-        <v>14296473194.73</v>
+        <v>14296.473194729999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1953,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="D71">
-        <v>14327492302.68</v>
+        <v>14327.492302680001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1967,7 +1967,7 @@
         <v>77</v>
       </c>
       <c r="D72">
-        <v>14468605320.02</v>
+        <v>14468.60532002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1981,7 +1981,7 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <v>14430660586.4</v>
+        <v>14430.660586399999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1995,7 +1995,7 @@
         <v>79</v>
       </c>
       <c r="D74">
-        <v>14355397943.92</v>
+        <v>14355.397943919999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2009,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>14472961291.139999</v>
+        <v>14472.96129114</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2023,7 +2023,7 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>14223716529.969999</v>
+        <v>14223.716529969999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2037,7 +2037,7 @@
         <v>82</v>
       </c>
       <c r="D77">
-        <v>14328986708.09</v>
+        <v>14328.98670809</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2051,7 +2051,7 @@
         <v>83</v>
       </c>
       <c r="D78">
-        <v>14341435781.17</v>
+        <v>14341.435781169999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2065,7 +2065,7 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>14354136269.24</v>
+        <v>14354.13626924</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2079,7 +2079,7 @@
         <v>85</v>
       </c>
       <c r="D80">
-        <v>14284356979.83</v>
+        <v>14284.35697983</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2093,7 +2093,7 @@
         <v>86</v>
       </c>
       <c r="D81">
-        <v>14317716842.1</v>
+        <v>14317.716842100001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2107,7 +2107,7 @@
         <v>87</v>
       </c>
       <c r="D82">
-        <v>14461307670.92</v>
+        <v>14461.30767092</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2121,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="D83">
-        <v>14212818975.389999</v>
+        <v>14212.818975389999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2135,7 +2135,7 @@
         <v>89</v>
       </c>
       <c r="D84">
-        <v>14233845989.540001</v>
+        <v>14233.845989540001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2149,7 +2149,7 @@
         <v>90</v>
       </c>
       <c r="D85">
-        <v>14146537639.9</v>
+        <v>14146.5376399</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2163,7 +2163,7 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>14295594281.969999</v>
+        <v>14295.594281969999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>92</v>
       </c>
       <c r="D87">
-        <v>14283559257.48</v>
+        <v>14283.559257479999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2191,7 +2191,7 @@
         <v>93</v>
       </c>
       <c r="D88">
-        <v>14340971611.07</v>
+        <v>14340.971611069999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2205,7 +2205,7 @@
         <v>94</v>
       </c>
       <c r="D89">
-        <v>14199532557.23</v>
+        <v>14199.532557229999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2219,7 +2219,7 @@
         <v>95</v>
       </c>
       <c r="D90">
-        <v>14355588694.610001</v>
+        <v>14355.58869461</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2233,7 +2233,7 @@
         <v>96</v>
       </c>
       <c r="D91">
-        <v>14381082495.15</v>
+        <v>14381.08249515</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2247,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <v>14367350241.780001</v>
+        <v>14367.350241780001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2261,7 +2261,7 @@
         <v>98</v>
       </c>
       <c r="D93">
-        <v>14145956627.66</v>
+        <v>14145.95662766</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2275,7 +2275,7 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>14356206545.559999</v>
+        <v>14356.206545559999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2289,7 +2289,7 @@
         <v>100</v>
       </c>
       <c r="D95">
-        <v>14580687782.450001</v>
+        <v>14580.687782450001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>101</v>
       </c>
       <c r="D96">
-        <v>14501206340.370001</v>
+        <v>14501.206340370001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2317,7 +2317,7 @@
         <v>102</v>
       </c>
       <c r="D97">
-        <v>14242159332.540001</v>
+        <v>14242.159332540001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2331,7 +2331,7 @@
         <v>103</v>
       </c>
       <c r="D98">
-        <v>14368309326.889999</v>
+        <v>14368.309326889999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2345,7 +2345,7 @@
         <v>104</v>
       </c>
       <c r="D99">
-        <v>14484483276.540001</v>
+        <v>14484.483276540001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2359,7 +2359,7 @@
         <v>105</v>
       </c>
       <c r="D100">
-        <v>14224669836.92</v>
+        <v>14224.66983692</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2373,7 +2373,7 @@
         <v>106</v>
       </c>
       <c r="D101">
-        <v>14496052987.290001</v>
+        <v>14496.052987290001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2387,7 +2387,7 @@
         <v>107</v>
       </c>
       <c r="D102">
-        <v>14368515157.42</v>
+        <v>14368.515157420001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2401,7 +2401,7 @@
         <v>108</v>
       </c>
       <c r="D103">
-        <v>14544676256.27</v>
+        <v>14544.676256270001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2415,7 +2415,7 @@
         <v>109</v>
       </c>
       <c r="D104">
-        <v>14502098804.75</v>
+        <v>14502.09880475</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2429,7 +2429,7 @@
         <v>110</v>
       </c>
       <c r="D105">
-        <v>14417208975.969999</v>
+        <v>14417.208975969999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2443,7 +2443,7 @@
         <v>111</v>
       </c>
       <c r="D106">
-        <v>14465504927.58</v>
+        <v>14465.504927579999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="D107">
-        <v>14212646818.219999</v>
+        <v>14212.646818219999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>113</v>
       </c>
       <c r="D108">
-        <v>14378513432.379999</v>
+        <v>14378.513432379999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2485,7 +2485,7 @@
         <v>114</v>
       </c>
       <c r="D109">
-        <v>14265015359.790001</v>
+        <v>14265.015359790001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
         <v>115</v>
       </c>
       <c r="D110">
-        <v>14747230504.639999</v>
+        <v>14747.23050464</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2513,7 +2513,7 @@
         <v>116</v>
       </c>
       <c r="D111">
-        <v>14241892325.370001</v>
+        <v>14241.892325370001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2527,7 +2527,7 @@
         <v>118</v>
       </c>
       <c r="D112">
-        <v>14368349911.84</v>
+        <v>14368.34991184</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2541,7 +2541,7 @@
         <v>119</v>
       </c>
       <c r="D113">
-        <v>14477828361.530001</v>
+        <v>14477.828361530001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2555,7 +2555,7 @@
         <v>120</v>
       </c>
       <c r="D114">
-        <v>14450227045.34</v>
+        <v>14450.22704534</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2569,7 +2569,7 @@
         <v>121</v>
       </c>
       <c r="D115">
-        <v>14522204255.379999</v>
+        <v>14522.204255379998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2583,7 +2583,7 @@
         <v>122</v>
       </c>
       <c r="D116">
-        <v>14602162487.280001</v>
+        <v>14602.16248728</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2597,7 +2597,7 @@
         <v>123</v>
       </c>
       <c r="D117">
-        <v>14227520346.75</v>
+        <v>14227.52034675</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2611,7 +2611,7 @@
         <v>124</v>
       </c>
       <c r="D118">
-        <v>14257792388.23</v>
+        <v>14257.79238823</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2625,7 +2625,7 @@
         <v>125</v>
       </c>
       <c r="D119">
-        <v>14704176619.620001</v>
+        <v>14704.176619620001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,7 +2639,7 @@
         <v>126</v>
       </c>
       <c r="D120">
-        <v>14429442154.209999</v>
+        <v>14429.442154209999</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2653,7 +2653,7 @@
         <v>127</v>
       </c>
       <c r="D121">
-        <v>14551243801.51</v>
+        <v>14551.24380151</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2667,7 +2667,7 @@
         <v>128</v>
       </c>
       <c r="D122">
-        <v>14583645841.040001</v>
+        <v>14583.645841040001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2681,7 +2681,7 @@
         <v>129</v>
       </c>
       <c r="D123">
-        <v>14512427903.469999</v>
+        <v>14512.427903469999</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2695,7 +2695,7 @@
         <v>130</v>
       </c>
       <c r="D124">
-        <v>14295806055.9</v>
+        <v>14295.806055900001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2709,7 +2709,7 @@
         <v>131</v>
       </c>
       <c r="D125">
-        <v>14241913914.469999</v>
+        <v>14241.913914469998</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2723,7 +2723,7 @@
         <v>132</v>
       </c>
       <c r="D126">
-        <v>14391232520.27</v>
+        <v>14391.232520270001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2737,7 +2737,7 @@
         <v>133</v>
       </c>
       <c r="D127">
-        <v>13988832188.83</v>
+        <v>13988.83218883</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2751,7 +2751,7 @@
         <v>134</v>
       </c>
       <c r="D128">
-        <v>14492751696.32</v>
+        <v>14492.75169632</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2765,7 +2765,7 @@
         <v>135</v>
       </c>
       <c r="D129">
-        <v>14449154631.77</v>
+        <v>14449.154631770001</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2779,7 +2779,7 @@
         <v>136</v>
       </c>
       <c r="D130">
-        <v>14067812692.51</v>
+        <v>14067.81269251</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2793,7 +2793,7 @@
         <v>137</v>
       </c>
       <c r="D131">
-        <v>14119143166.01</v>
+        <v>14119.143166010001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2807,7 +2807,7 @@
         <v>138</v>
       </c>
       <c r="D132">
-        <v>14230674601.700001</v>
+        <v>14230.6746017</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2821,7 +2821,7 @@
         <v>139</v>
       </c>
       <c r="D133">
-        <v>14488021626.540001</v>
+        <v>14488.021626540001</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2835,7 +2835,7 @@
         <v>140</v>
       </c>
       <c r="D134">
-        <v>14593421621.24</v>
+        <v>14593.421621240001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2849,7 +2849,7 @@
         <v>142</v>
       </c>
       <c r="D135">
-        <v>14502120144.440001</v>
+        <v>14502.120144440001</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2863,7 +2863,7 @@
         <v>143</v>
       </c>
       <c r="D136">
-        <v>14341093886.459999</v>
+        <v>14341.093886459999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2877,7 +2877,7 @@
         <v>144</v>
       </c>
       <c r="D137">
-        <v>14367222605.629999</v>
+        <v>14367.222605629999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2891,7 +2891,7 @@
         <v>145</v>
       </c>
       <c r="D138">
-        <v>14217243249.190001</v>
+        <v>14217.24324919</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2905,7 +2905,7 @@
         <v>147</v>
       </c>
       <c r="D139">
-        <v>14206643902.85</v>
+        <v>14206.643902850001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2919,7 +2919,7 @@
         <v>148</v>
       </c>
       <c r="D140">
-        <v>14479186671.860001</v>
+        <v>14479.186671860001</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
         <v>149</v>
       </c>
       <c r="D141">
-        <v>14269901206.030001</v>
+        <v>14269.901206030001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2947,7 +2947,7 @@
         <v>150</v>
       </c>
       <c r="D142">
-        <v>14485285182.469999</v>
+        <v>14485.285182469999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2961,7 +2961,7 @@
         <v>151</v>
       </c>
       <c r="D143">
-        <v>14274171851.719999</v>
+        <v>14274.171851719999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2975,7 +2975,7 @@
         <v>152</v>
       </c>
       <c r="D144">
-        <v>14563568236.620001</v>
+        <v>14563.568236620002</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2989,7 +2989,7 @@
         <v>153</v>
       </c>
       <c r="D145">
-        <v>14110973593.09</v>
+        <v>14110.973593090001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3003,7 +3003,7 @@
         <v>154</v>
       </c>
       <c r="D146">
-        <v>14431858803.35</v>
+        <v>14431.85880335</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3017,7 +3017,7 @@
         <v>155</v>
       </c>
       <c r="D147">
-        <v>14466040733.98</v>
+        <v>14466.04073398</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3031,7 +3031,7 @@
         <v>156</v>
       </c>
       <c r="D148">
-        <v>14558897327.879999</v>
+        <v>14558.897327879999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3045,7 +3045,7 @@
         <v>157</v>
       </c>
       <c r="D149">
-        <v>14425812648.24</v>
+        <v>14425.81264824</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3059,7 +3059,7 @@
         <v>158</v>
       </c>
       <c r="D150">
-        <v>14229493093.18</v>
+        <v>14229.493093180001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3073,7 +3073,7 @@
         <v>159</v>
       </c>
       <c r="D151">
-        <v>14585229630.32</v>
+        <v>14585.22963032</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3087,7 +3087,7 @@
         <v>160</v>
       </c>
       <c r="D152">
-        <v>14522502898.280001</v>
+        <v>14522.502898280001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3101,7 +3101,7 @@
         <v>161</v>
       </c>
       <c r="D153">
-        <v>14407236392.75</v>
+        <v>14407.236392749999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3115,7 +3115,7 @@
         <v>162</v>
       </c>
       <c r="D154">
-        <v>14429669091.280001</v>
+        <v>14429.66909128</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3129,7 +3129,7 @@
         <v>163</v>
       </c>
       <c r="D155">
-        <v>14474554473.34</v>
+        <v>14474.55447334</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3143,7 +3143,7 @@
         <v>164</v>
       </c>
       <c r="D156">
-        <v>14222689881.27</v>
+        <v>14222.68988127</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3157,7 +3157,7 @@
         <v>165</v>
       </c>
       <c r="D157">
-        <v>14297191951.030001</v>
+        <v>14297.191951030001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3171,7 +3171,7 @@
         <v>166</v>
       </c>
       <c r="D158">
-        <v>14552292413.6</v>
+        <v>14552.2924136</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3185,7 +3185,7 @@
         <v>167</v>
       </c>
       <c r="D159">
-        <v>14307277679.879999</v>
+        <v>14307.277679879999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3199,7 +3199,7 @@
         <v>168</v>
       </c>
       <c r="D160">
-        <v>14361496763.84</v>
+        <v>14361.496763839999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -3213,7 +3213,7 @@
         <v>169</v>
       </c>
       <c r="D161">
-        <v>14518068553.1</v>
+        <v>14518.0685531</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3227,7 +3227,7 @@
         <v>170</v>
       </c>
       <c r="D162">
-        <v>14448965078.52</v>
+        <v>14448.965078520001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>171</v>
       </c>
       <c r="D163">
-        <v>14461378867.530001</v>
+        <v>14461.37886753</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3255,7 +3255,7 @@
         <v>172</v>
       </c>
       <c r="D164">
-        <v>14586372830.219999</v>
+        <v>14586.37283022</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3269,7 +3269,7 @@
         <v>173</v>
       </c>
       <c r="D165">
-        <v>14405170871.719999</v>
+        <v>14405.17087172</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -3283,7 +3283,7 @@
         <v>174</v>
       </c>
       <c r="D166">
-        <v>14395753895.75</v>
+        <v>14395.75389575</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3297,7 +3297,7 @@
         <v>175</v>
       </c>
       <c r="D167">
-        <v>14326200780.110001</v>
+        <v>14326.200780110001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -3311,7 +3311,7 @@
         <v>176</v>
       </c>
       <c r="D168">
-        <v>14472995236.92</v>
+        <v>14472.99523692</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -3325,7 +3325,7 @@
         <v>177</v>
       </c>
       <c r="D169">
-        <v>14467204955.01</v>
+        <v>14467.20495501</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -3339,7 +3339,7 @@
         <v>178</v>
       </c>
       <c r="D170">
-        <v>14234645067.27</v>
+        <v>14234.645067270001</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -3353,7 +3353,7 @@
         <v>179</v>
       </c>
       <c r="D171">
-        <v>14368842829.870001</v>
+        <v>14368.84282987</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -3367,7 +3367,7 @@
         <v>180</v>
       </c>
       <c r="D172">
-        <v>14466910860.77</v>
+        <v>14466.91086077</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -3381,7 +3381,7 @@
         <v>181</v>
       </c>
       <c r="D173">
-        <v>14251133641.32</v>
+        <v>14251.133641319999</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -3395,7 +3395,7 @@
         <v>182</v>
       </c>
       <c r="D174">
-        <v>14318846678.01</v>
+        <v>14318.846678010001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>183</v>
       </c>
       <c r="D175">
-        <v>14318358326.799999</v>
+        <v>14318.358326799998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -3423,7 +3423,7 @@
         <v>184</v>
       </c>
       <c r="D176">
-        <v>14385945983.389999</v>
+        <v>14385.94598339</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -3437,7 +3437,7 @@
         <v>185</v>
       </c>
       <c r="D177">
-        <v>14358368962.23</v>
+        <v>14358.368962229999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -3451,7 +3451,7 @@
         <v>186</v>
       </c>
       <c r="D178">
-        <v>14306294907.16</v>
+        <v>14306.29490716</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -3465,7 +3465,7 @@
         <v>187</v>
       </c>
       <c r="D179">
-        <v>14617596020.969999</v>
+        <v>14617.596020969999</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -3479,7 +3479,7 @@
         <v>188</v>
       </c>
       <c r="D180">
-        <v>14443127805.6</v>
+        <v>14443.127805600001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -3493,7 +3493,7 @@
         <v>189</v>
       </c>
       <c r="D181">
-        <v>14632383004.280001</v>
+        <v>14632.38300428</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -3507,7 +3507,7 @@
         <v>190</v>
       </c>
       <c r="D182">
-        <v>14315281294.35</v>
+        <v>14315.281294350001</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -3521,7 +3521,7 @@
         <v>191</v>
       </c>
       <c r="D183">
-        <v>14473458412.57</v>
+        <v>14473.45841257</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -3535,7 +3535,7 @@
         <v>192</v>
       </c>
       <c r="D184">
-        <v>14454116373.25</v>
+        <v>14454.116373250001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -3549,7 +3549,7 @@
         <v>193</v>
       </c>
       <c r="D185">
-        <v>14467843826.57</v>
+        <v>14467.843826570001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -3563,7 +3563,7 @@
         <v>194</v>
       </c>
       <c r="D186">
-        <v>14291933156.58</v>
+        <v>14291.93315658</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DDEF3-9777-4242-8F99-F5F6AB46A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622CFC2-C3C4-46FB-921C-08CD601D5AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,7 +956,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
